--- a/experiment_plans/large_upper_ex_plan.xlsx
+++ b/experiment_plans/large_upper_ex_plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -333,10 +333,16 @@
     <t xml:space="preserve">Doppel_4.valid</t>
   </si>
   <si>
-    <t xml:space="preserve">Pos_Con_4.train</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos_Con_4.valid</t>
+    <t xml:space="preserve">Doppel_5.train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doppel_5.valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos_Con_5.train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos_Con_5.valid</t>
   </si>
   <si>
     <t xml:space="preserve">train_LARGE_INTESTINE</t>
@@ -354,6 +360,9 @@
     <t xml:space="preserve">num_doppel_pairs</t>
   </si>
   <si>
+    <t xml:space="preserve">num_val_doppel_samples</t>
+  </si>
+  <si>
     <t xml:space="preserve">Doppel_0</t>
   </si>
   <si>
@@ -369,7 +378,10 @@
     <t xml:space="preserve">Doppel_4</t>
   </si>
   <si>
-    <t xml:space="preserve">Pos_Con_4</t>
+    <t xml:space="preserve">Doppel_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos_Con_5</t>
   </si>
   <si>
     <t xml:space="preserve">sample_type</t>
@@ -421,22 +433,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF8D29FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0ADFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBDBDBD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8D29FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD0ADFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -785,13 +797,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
@@ -799,13 +811,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
@@ -813,13 +825,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
@@ -827,13 +839,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
@@ -841,13 +853,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
@@ -855,13 +867,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
@@ -869,13 +881,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
@@ -883,13 +895,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
@@ -897,13 +909,13 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
@@ -911,13 +923,13 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
@@ -925,13 +937,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
@@ -939,13 +951,13 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
@@ -953,13 +965,13 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
@@ -981,13 +993,13 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D17" t="s">
@@ -995,13 +1007,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D18" t="s">
@@ -1009,13 +1021,13 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D19" t="s">
@@ -1023,13 +1035,13 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D20" t="s">
@@ -1037,13 +1049,13 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D21" t="s">
@@ -1051,13 +1063,13 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
@@ -1065,13 +1077,13 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D23" t="s">
@@ -1093,13 +1105,13 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D25" t="s">
@@ -1121,13 +1133,13 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D27" t="s">
@@ -1135,13 +1147,13 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D28" t="s">
@@ -1149,13 +1161,13 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D29" t="s">
@@ -1163,13 +1175,13 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D30" t="s">
@@ -1177,13 +1189,13 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D31" t="s">
@@ -1191,13 +1203,13 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D32" t="s">
@@ -1205,13 +1217,13 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D33" t="s">
@@ -1219,13 +1231,13 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D34" t="s">
@@ -1233,13 +1245,13 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D35" t="s">
@@ -1247,13 +1259,13 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D36" t="s">
@@ -1261,13 +1273,13 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D37" t="s">
@@ -1275,13 +1287,13 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D38" t="s">
@@ -1289,13 +1301,13 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D39" t="s">
@@ -1303,13 +1315,13 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D40" t="s">
@@ -1317,13 +1329,13 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D41" t="s">
@@ -1345,13 +1357,13 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D43" t="s">
@@ -1373,13 +1385,13 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D45" t="s">
@@ -1387,13 +1399,13 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D46" t="s">
@@ -1401,13 +1413,13 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D47" t="s">
@@ -1415,13 +1427,13 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D48" t="s">
@@ -1429,13 +1441,13 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D49" t="s">
@@ -1443,13 +1455,13 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D50" t="s">
@@ -1457,13 +1469,13 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D51" t="s">
@@ -1471,13 +1483,13 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D52" t="s">
@@ -1485,13 +1497,13 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D53" t="s">
@@ -1499,13 +1511,13 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D54" t="s">
@@ -1513,13 +1525,13 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D55" t="s">
@@ -1527,13 +1539,13 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D56" t="s">
@@ -1541,13 +1553,13 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D57" t="s">
@@ -1555,13 +1567,13 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D58" t="s">
@@ -1569,13 +1581,13 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B59" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D59" t="s">
@@ -1583,13 +1595,13 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B60" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D60" t="s">
@@ -1597,13 +1609,13 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B61" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D61" t="s">
@@ -1611,13 +1623,13 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D62" t="s">
@@ -1625,13 +1637,13 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D63" t="s">
@@ -1639,13 +1651,13 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D64" t="s">
@@ -1653,13 +1665,13 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B65" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D65" t="s">
@@ -1667,13 +1679,13 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B66" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D66" t="s">
@@ -1681,13 +1693,13 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B67" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D67" t="s">
@@ -1695,13 +1707,13 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B68" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D68" t="s">
@@ -1709,13 +1721,13 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B69" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D69" t="s">
@@ -1723,13 +1735,13 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D70" t="s">
@@ -1737,13 +1749,13 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D71" t="s">
@@ -1751,13 +1763,13 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B72" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D72" t="s">
@@ -1765,13 +1777,13 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B73" t="s">
         <v>63</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D73" t="s">
@@ -1779,13 +1791,13 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B74" t="s">
         <v>63</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D74" t="s">
@@ -1793,13 +1805,13 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B75" t="s">
         <v>63</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D75" t="s">
@@ -1835,13 +1847,13 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B78" t="s">
         <v>63</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D78" t="s">
@@ -1849,13 +1861,13 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B79" t="s">
         <v>63</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D79" t="s">
@@ -1863,13 +1875,13 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B80" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D80" t="s">
@@ -1877,13 +1889,13 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D81" t="s">
@@ -1891,13 +1903,13 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D82" t="s">
@@ -1905,13 +1917,13 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B83" t="s">
         <v>63</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D83" t="s">
@@ -1919,13 +1931,13 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B84" t="s">
         <v>63</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D84" t="s">
@@ -1933,13 +1945,13 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B85" t="s">
         <v>63</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D85" t="s">
@@ -1947,13 +1959,13 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B86" t="s">
         <v>63</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D86" t="s">
@@ -1961,13 +1973,13 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B87" t="s">
         <v>63</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D87" t="s">
@@ -1975,13 +1987,13 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B88" t="s">
         <v>63</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D88" t="s">
@@ -2002,8 +2014,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="34.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="34.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="22.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="22.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2018,80 +2030,91 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2"/>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3"/>
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4"/>
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C5"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>82</v>
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C8"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>84</v>
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C9"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2112,13 +2135,15 @@
     <col min="3" max="3" width="42.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="32.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="42.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="34.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="32.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="42.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="34.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="32.71" hidden="0" customWidth="1"/>
     <col min="9" max="9" width="42.71" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="34.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="32.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="42.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="32.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="42.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="32.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2158,2212 +2183,2462 @@
       <c r="L1" t="s">
         <v>106</v>
       </c>
+      <c r="M1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="I7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="K7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="G8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="I8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="K8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="9">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="D9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="F9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="H9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="J9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6"/>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6"/>
-      <c r="I6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7"/>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7"/>
-      <c r="I7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8"/>
-      <c r="C8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8"/>
-      <c r="I8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9"/>
-      <c r="C9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9"/>
-      <c r="I9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9"/>
+      <c r="N9" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10"/>
+        <v>48</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10"/>
+        <v>48</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10"/>
+        <v>48</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10"/>
+        <v>48</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10"/>
+        <v>48</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="K10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10"/>
+        <v>48</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11"/>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11"/>
-      <c r="I11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11"/>
-      <c r="K11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11"/>
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
+      <c r="A12" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B12"/>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D12"/>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F12"/>
-      <c r="G12" s="2" t="s">
-        <v>10</v>
+      <c r="G12" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H12"/>
-      <c r="I12" s="2" t="s">
-        <v>10</v>
+      <c r="I12" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="J12"/>
-      <c r="K12" s="2" t="s">
-        <v>10</v>
+      <c r="K12" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="L12"/>
+      <c r="M12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
+      <c r="A13" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B13"/>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D13"/>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F13"/>
-      <c r="G13" s="2" t="s">
-        <v>11</v>
+      <c r="G13" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="H13"/>
-      <c r="I13" s="2" t="s">
-        <v>11</v>
+      <c r="I13" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="J13"/>
-      <c r="K13" s="2" t="s">
-        <v>11</v>
+      <c r="K13" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="L13"/>
+      <c r="M13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
+      <c r="A14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B14"/>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D14"/>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F14"/>
-      <c r="G14" s="2" t="s">
-        <v>12</v>
+      <c r="G14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H14"/>
-      <c r="I14" s="2" t="s">
-        <v>12</v>
+      <c r="I14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="J14"/>
-      <c r="K14" s="2" t="s">
-        <v>12</v>
+      <c r="K14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="L14"/>
+      <c r="M14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
+      <c r="A15" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B15"/>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D15"/>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F15"/>
-      <c r="G15" s="2" t="s">
-        <v>13</v>
+      <c r="G15" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="H15"/>
-      <c r="I15" s="2" t="s">
-        <v>13</v>
+      <c r="I15" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="J15"/>
-      <c r="K15" s="2" t="s">
-        <v>13</v>
+      <c r="K15" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="L15"/>
+      <c r="M15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
+      <c r="A16" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B16"/>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D16"/>
-      <c r="E16" s="2" t="s">
-        <v>14</v>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F16"/>
-      <c r="G16" s="2" t="s">
-        <v>14</v>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H16"/>
-      <c r="I16" s="2" t="s">
-        <v>14</v>
+      <c r="I16" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="J16"/>
-      <c r="K16" s="2" t="s">
-        <v>14</v>
+      <c r="K16" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="L16"/>
+      <c r="M16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
+      <c r="A17" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
+      <c r="C17" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D17"/>
-      <c r="E17" s="2" t="s">
-        <v>15</v>
+      <c r="E17" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F17"/>
-      <c r="G17" s="2" t="s">
-        <v>15</v>
+      <c r="G17" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H17"/>
-      <c r="I17" s="2" t="s">
-        <v>15</v>
+      <c r="I17" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="J17"/>
-      <c r="K17" s="2" t="s">
-        <v>15</v>
+      <c r="K17" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="L17"/>
+      <c r="M17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
+      <c r="A18" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B18"/>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D18"/>
-      <c r="E18" s="2" t="s">
-        <v>16</v>
+      <c r="E18" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F18"/>
-      <c r="G18" s="2" t="s">
-        <v>16</v>
+      <c r="G18" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="H18"/>
-      <c r="I18" s="2" t="s">
-        <v>16</v>
+      <c r="I18" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="J18"/>
-      <c r="K18" s="2" t="s">
-        <v>16</v>
+      <c r="K18" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="L18"/>
+      <c r="M18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
+      <c r="A19" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D19"/>
-      <c r="E19" s="2" t="s">
-        <v>17</v>
+      <c r="E19" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="F19"/>
-      <c r="G19" s="2" t="s">
-        <v>17</v>
+      <c r="G19" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="H19"/>
-      <c r="I19" s="2" t="s">
-        <v>17</v>
+      <c r="I19" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J19"/>
-      <c r="K19" s="2" t="s">
-        <v>17</v>
+      <c r="K19" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="L19"/>
+      <c r="M19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
+      <c r="A20" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B20"/>
-      <c r="C20" s="2" t="s">
-        <v>18</v>
+      <c r="C20" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D20"/>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
+      <c r="E20" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F20"/>
-      <c r="G20" s="2" t="s">
-        <v>18</v>
+      <c r="G20" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="H20"/>
-      <c r="I20" s="2" t="s">
-        <v>18</v>
+      <c r="I20" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="J20"/>
-      <c r="K20" s="2" t="s">
-        <v>18</v>
+      <c r="K20" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="L20"/>
+      <c r="M20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
+      <c r="A21" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B21"/>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
+      <c r="C21" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D21"/>
-      <c r="E21" s="2" t="s">
-        <v>19</v>
+      <c r="E21" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="F21"/>
-      <c r="G21" s="2" t="s">
-        <v>19</v>
+      <c r="G21" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="H21"/>
-      <c r="I21" s="2" t="s">
-        <v>19</v>
+      <c r="I21" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="J21"/>
-      <c r="K21" s="2" t="s">
-        <v>19</v>
+      <c r="K21" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="L21"/>
+      <c r="M21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
+      <c r="A22" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B22"/>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
+      <c r="C22" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D22"/>
-      <c r="E22" s="2" t="s">
-        <v>20</v>
+      <c r="E22" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F22"/>
-      <c r="G22" s="2" t="s">
-        <v>20</v>
+      <c r="G22" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="H22"/>
-      <c r="I22" s="2" t="s">
-        <v>20</v>
+      <c r="I22" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="J22"/>
-      <c r="K22" s="2" t="s">
-        <v>20</v>
+      <c r="K22" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="L22"/>
+      <c r="M22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
+      <c r="A23" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="2" t="s">
-        <v>21</v>
+      <c r="C23" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D23"/>
-      <c r="E23" s="2" t="s">
-        <v>21</v>
+      <c r="E23" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F23"/>
-      <c r="G23" s="2" t="s">
-        <v>21</v>
+      <c r="G23" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="H23"/>
-      <c r="I23" s="2" t="s">
-        <v>21</v>
+      <c r="I23" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="J23"/>
-      <c r="K23" s="2" t="s">
-        <v>21</v>
+      <c r="K23" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="L23"/>
+      <c r="M23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
+      <c r="A24" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B24"/>
-      <c r="C24" s="2" t="s">
-        <v>24</v>
+      <c r="C24" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D24"/>
-      <c r="E24" s="2" t="s">
-        <v>24</v>
+      <c r="E24" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F24"/>
-      <c r="G24" s="2" t="s">
-        <v>24</v>
+      <c r="G24" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="H24"/>
-      <c r="I24" s="2" t="s">
-        <v>24</v>
+      <c r="I24" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="J24"/>
-      <c r="K24" s="2" t="s">
-        <v>24</v>
+      <c r="K24" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="L24"/>
+      <c r="M24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
+      <c r="A25" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B25"/>
-      <c r="C25" s="2" t="s">
-        <v>25</v>
+      <c r="C25" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="D25"/>
-      <c r="E25" s="2" t="s">
-        <v>25</v>
+      <c r="E25" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F25"/>
-      <c r="G25" s="2" t="s">
-        <v>25</v>
+      <c r="G25" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="H25"/>
-      <c r="I25" s="2" t="s">
-        <v>25</v>
+      <c r="I25" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="J25"/>
-      <c r="K25" s="2" t="s">
-        <v>25</v>
+      <c r="K25" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="L25"/>
+      <c r="M25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25"/>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
+      <c r="A26" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B26"/>
-      <c r="C26" s="2" t="s">
-        <v>26</v>
+      <c r="C26" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D26"/>
-      <c r="E26" s="2" t="s">
-        <v>26</v>
+      <c r="E26" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F26"/>
-      <c r="G26" s="2" t="s">
-        <v>26</v>
+      <c r="G26" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="H26"/>
-      <c r="I26" s="2" t="s">
-        <v>26</v>
+      <c r="I26" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="J26"/>
-      <c r="K26" s="2" t="s">
-        <v>26</v>
+      <c r="K26" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="L26"/>
+      <c r="M26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
+      <c r="A27" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B27"/>
-      <c r="C27" s="2" t="s">
-        <v>27</v>
+      <c r="C27" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="D27"/>
-      <c r="E27" s="2" t="s">
-        <v>27</v>
+      <c r="E27" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F27"/>
-      <c r="G27" s="2" t="s">
-        <v>27</v>
+      <c r="G27" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H27"/>
-      <c r="I27" s="2" t="s">
-        <v>27</v>
+      <c r="I27" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="J27"/>
-      <c r="K27" s="2" t="s">
-        <v>27</v>
+      <c r="K27" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="L27"/>
+      <c r="M27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
+      <c r="A28" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B28"/>
-      <c r="C28" s="2" t="s">
-        <v>29</v>
+      <c r="C28" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D28"/>
-      <c r="E28" s="2" t="s">
-        <v>29</v>
+      <c r="E28" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="F28"/>
-      <c r="G28" s="2" t="s">
-        <v>29</v>
+      <c r="G28" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="H28"/>
-      <c r="I28" s="2" t="s">
-        <v>29</v>
+      <c r="I28" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="J28"/>
-      <c r="K28" s="2" t="s">
-        <v>29</v>
+      <c r="K28" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="L28"/>
+      <c r="M28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>31</v>
+      <c r="A29" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B29"/>
-      <c r="C29" s="2" t="s">
-        <v>31</v>
+      <c r="C29" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D29"/>
-      <c r="E29" s="2" t="s">
-        <v>31</v>
+      <c r="E29" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="F29"/>
-      <c r="G29" s="2" t="s">
-        <v>31</v>
+      <c r="G29" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="H29"/>
-      <c r="I29" s="2" t="s">
-        <v>31</v>
+      <c r="I29" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="J29"/>
-      <c r="K29" s="2" t="s">
-        <v>31</v>
+      <c r="K29" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="L29"/>
+      <c r="M29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N29"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>32</v>
+      <c r="A30" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B30"/>
-      <c r="C30" s="2" t="s">
-        <v>32</v>
+      <c r="C30" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D30"/>
-      <c r="E30" s="2" t="s">
-        <v>32</v>
+      <c r="E30" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F30"/>
-      <c r="G30" s="2" t="s">
-        <v>32</v>
+      <c r="G30" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="H30"/>
-      <c r="I30" s="2" t="s">
-        <v>32</v>
+      <c r="I30" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J30"/>
-      <c r="K30" s="2" t="s">
-        <v>32</v>
+      <c r="K30" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="L30"/>
+      <c r="M30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
-        <v>33</v>
+      <c r="A31" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B31"/>
-      <c r="C31" s="2" t="s">
-        <v>33</v>
+      <c r="C31" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D31"/>
-      <c r="E31" s="2" t="s">
-        <v>33</v>
+      <c r="E31" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F31"/>
-      <c r="G31" s="2" t="s">
-        <v>33</v>
+      <c r="G31" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="H31"/>
-      <c r="I31" s="2" t="s">
-        <v>33</v>
+      <c r="I31" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="J31"/>
-      <c r="K31" s="2" t="s">
-        <v>33</v>
+      <c r="K31" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="L31"/>
+      <c r="M31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>34</v>
+      <c r="A32" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B32"/>
-      <c r="C32" s="2" t="s">
-        <v>34</v>
+      <c r="C32" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D32"/>
-      <c r="E32" s="2" t="s">
-        <v>34</v>
+      <c r="E32" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="F32"/>
-      <c r="G32" s="2" t="s">
-        <v>34</v>
+      <c r="G32" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="H32"/>
-      <c r="I32" s="2" t="s">
-        <v>34</v>
+      <c r="I32" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="J32"/>
-      <c r="K32" s="2" t="s">
-        <v>34</v>
+      <c r="K32" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="L32"/>
+      <c r="M32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>35</v>
+      <c r="A33" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B33"/>
-      <c r="C33" s="2" t="s">
-        <v>35</v>
+      <c r="C33" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="D33"/>
-      <c r="E33" s="2" t="s">
-        <v>35</v>
+      <c r="E33" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F33"/>
-      <c r="G33" s="2" t="s">
-        <v>35</v>
+      <c r="G33" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="H33"/>
-      <c r="I33" s="2" t="s">
-        <v>35</v>
+      <c r="I33" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="J33"/>
-      <c r="K33" s="2" t="s">
-        <v>35</v>
+      <c r="K33" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="L33"/>
+      <c r="M33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N33"/>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>36</v>
+      <c r="A34" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B34"/>
-      <c r="C34" s="2" t="s">
-        <v>36</v>
+      <c r="C34" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D34"/>
-      <c r="E34" s="2" t="s">
-        <v>36</v>
+      <c r="E34" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="F34"/>
-      <c r="G34" s="2" t="s">
-        <v>36</v>
+      <c r="G34" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="H34"/>
-      <c r="I34" s="2" t="s">
-        <v>36</v>
+      <c r="I34" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="J34"/>
-      <c r="K34" s="2" t="s">
-        <v>36</v>
+      <c r="K34" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="L34"/>
+      <c r="M34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
-        <v>37</v>
+      <c r="A35" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B35"/>
-      <c r="C35" s="2" t="s">
-        <v>37</v>
+      <c r="C35" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D35"/>
-      <c r="E35" s="2" t="s">
-        <v>37</v>
+      <c r="E35" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="F35"/>
-      <c r="G35" s="2" t="s">
-        <v>37</v>
+      <c r="G35" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="H35"/>
-      <c r="I35" s="2" t="s">
-        <v>37</v>
+      <c r="I35" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="J35"/>
-      <c r="K35" s="2" t="s">
-        <v>37</v>
+      <c r="K35" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="L35"/>
+      <c r="M35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
-        <v>38</v>
+      <c r="A36" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B36"/>
-      <c r="C36" s="2" t="s">
-        <v>38</v>
+      <c r="C36" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D36"/>
-      <c r="E36" s="2" t="s">
-        <v>38</v>
+      <c r="E36" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F36"/>
-      <c r="G36" s="2" t="s">
-        <v>38</v>
+      <c r="G36" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="H36"/>
-      <c r="I36" s="2" t="s">
-        <v>38</v>
+      <c r="I36" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="J36"/>
-      <c r="K36" s="2" t="s">
-        <v>38</v>
+      <c r="K36" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="L36"/>
+      <c r="M36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N36"/>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
-        <v>39</v>
+      <c r="A37" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B37"/>
-      <c r="C37" s="2" t="s">
-        <v>39</v>
+      <c r="C37" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D37"/>
-      <c r="E37" s="2" t="s">
-        <v>39</v>
+      <c r="E37" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="F37"/>
-      <c r="G37" s="2" t="s">
-        <v>39</v>
+      <c r="G37" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="H37"/>
-      <c r="I37" s="2" t="s">
-        <v>39</v>
+      <c r="I37" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="J37"/>
-      <c r="K37" s="2" t="s">
-        <v>39</v>
+      <c r="K37" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="L37"/>
+      <c r="M37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N37"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>40</v>
+      <c r="A38" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B38"/>
-      <c r="C38" s="2" t="s">
-        <v>40</v>
+      <c r="C38" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D38"/>
-      <c r="E38" s="2" t="s">
-        <v>40</v>
+      <c r="E38" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="F38"/>
-      <c r="G38" s="2" t="s">
-        <v>40</v>
+      <c r="G38" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="H38"/>
-      <c r="I38" s="2" t="s">
-        <v>40</v>
+      <c r="I38" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="J38"/>
-      <c r="K38" s="2" t="s">
-        <v>40</v>
+      <c r="K38" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="L38"/>
+      <c r="M38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>41</v>
+      <c r="A39" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B39"/>
-      <c r="C39" s="2" t="s">
-        <v>41</v>
+      <c r="C39" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D39"/>
-      <c r="E39" s="2" t="s">
-        <v>41</v>
+      <c r="E39" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="F39"/>
-      <c r="G39" s="2" t="s">
-        <v>41</v>
+      <c r="G39" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="H39"/>
-      <c r="I39" s="2" t="s">
-        <v>41</v>
+      <c r="I39" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="J39"/>
-      <c r="K39" s="2" t="s">
-        <v>41</v>
+      <c r="K39" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="L39"/>
+      <c r="M39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39"/>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
-        <v>42</v>
+      <c r="A40" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B40"/>
-      <c r="C40" s="2" t="s">
-        <v>42</v>
+      <c r="C40" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D40"/>
-      <c r="E40" s="2" t="s">
-        <v>42</v>
+      <c r="E40" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F40"/>
-      <c r="G40" s="2" t="s">
-        <v>42</v>
+      <c r="G40" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="H40"/>
-      <c r="I40" s="2" t="s">
-        <v>42</v>
+      <c r="I40" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="J40"/>
-      <c r="K40" s="2" t="s">
-        <v>42</v>
+      <c r="K40" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="L40"/>
+      <c r="M40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N40"/>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>43</v>
+      <c r="A41" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B41"/>
-      <c r="C41" s="2" t="s">
-        <v>43</v>
+      <c r="C41" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="D41"/>
-      <c r="E41" s="2" t="s">
-        <v>43</v>
+      <c r="E41" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="F41"/>
-      <c r="G41" s="2" t="s">
-        <v>43</v>
+      <c r="G41" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="H41"/>
-      <c r="I41" s="2" t="s">
-        <v>43</v>
+      <c r="I41" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="J41"/>
-      <c r="K41" s="2" t="s">
-        <v>43</v>
+      <c r="K41" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="L41"/>
+      <c r="M41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N41"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>44</v>
+      <c r="A42" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B42"/>
-      <c r="C42" s="2" t="s">
-        <v>44</v>
+      <c r="C42" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="D42"/>
-      <c r="E42" s="2" t="s">
-        <v>44</v>
+      <c r="E42" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="F42"/>
-      <c r="G42" s="2" t="s">
-        <v>44</v>
+      <c r="G42" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="H42"/>
-      <c r="I42" s="2" t="s">
-        <v>44</v>
+      <c r="I42" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="J42"/>
-      <c r="K42" s="2" t="s">
-        <v>44</v>
+      <c r="K42" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="L42"/>
+      <c r="M42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N42"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="s">
-        <v>45</v>
+      <c r="A43" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="B43"/>
-      <c r="C43" s="2" t="s">
-        <v>45</v>
+      <c r="C43" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="D43"/>
-      <c r="E43" s="2" t="s">
-        <v>45</v>
+      <c r="E43" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F43"/>
-      <c r="G43" s="2" t="s">
-        <v>45</v>
+      <c r="G43" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="H43"/>
-      <c r="I43" s="2" t="s">
-        <v>45</v>
+      <c r="I43" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="J43"/>
-      <c r="K43" s="2" t="s">
-        <v>45</v>
+      <c r="K43" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="L43"/>
+      <c r="M43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N43"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>46</v>
+      <c r="A44" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B44"/>
-      <c r="C44" s="2" t="s">
-        <v>46</v>
+      <c r="C44" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D44"/>
-      <c r="E44" s="2" t="s">
-        <v>46</v>
+      <c r="E44" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="F44"/>
-      <c r="G44" s="2" t="s">
-        <v>46</v>
+      <c r="G44" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="H44"/>
-      <c r="I44" s="2" t="s">
-        <v>46</v>
+      <c r="I44" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="J44"/>
-      <c r="K44" s="2" t="s">
-        <v>46</v>
+      <c r="K44" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="L44"/>
+      <c r="M44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N44"/>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>47</v>
+      <c r="A45" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B45"/>
-      <c r="C45" s="2" t="s">
-        <v>47</v>
+      <c r="C45" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D45"/>
-      <c r="E45" s="2" t="s">
-        <v>47</v>
+      <c r="E45" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="F45"/>
-      <c r="G45" s="2" t="s">
-        <v>47</v>
+      <c r="G45" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="H45"/>
-      <c r="I45" s="2" t="s">
-        <v>47</v>
+      <c r="I45" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="J45"/>
-      <c r="K45" s="2" t="s">
-        <v>47</v>
+      <c r="K45" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="L45"/>
+      <c r="M45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N45"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>48</v>
+      <c r="A46" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B46"/>
-      <c r="C46" s="2" t="s">
-        <v>48</v>
+      <c r="C46" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D46"/>
-      <c r="E46" s="2" t="s">
-        <v>48</v>
+      <c r="E46" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="F46"/>
-      <c r="G46" s="2" t="s">
-        <v>48</v>
+      <c r="G46" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="H46"/>
-      <c r="I46" s="2" t="s">
-        <v>48</v>
+      <c r="I46" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="J46"/>
-      <c r="K46" s="2" t="s">
-        <v>48</v>
+      <c r="K46" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="L46"/>
+      <c r="M46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N46"/>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>49</v>
+      <c r="A47" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B47"/>
-      <c r="C47" s="2" t="s">
-        <v>49</v>
+      <c r="C47" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D47"/>
-      <c r="E47" s="2" t="s">
-        <v>49</v>
+      <c r="E47" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="F47"/>
-      <c r="G47" s="2" t="s">
-        <v>49</v>
+      <c r="G47" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="H47"/>
-      <c r="I47" s="2" t="s">
-        <v>49</v>
+      <c r="I47" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="J47"/>
-      <c r="K47" s="2" t="s">
-        <v>49</v>
+      <c r="K47" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="L47"/>
+      <c r="M47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N47"/>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>50</v>
+      <c r="A48" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B48"/>
-      <c r="C48" s="2" t="s">
-        <v>50</v>
+      <c r="C48" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D48"/>
-      <c r="E48" s="2" t="s">
-        <v>50</v>
+      <c r="E48" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F48"/>
-      <c r="G48" s="2" t="s">
-        <v>50</v>
+      <c r="G48" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="H48"/>
-      <c r="I48" s="2" t="s">
-        <v>50</v>
+      <c r="I48" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J48"/>
-      <c r="K48" s="2" t="s">
-        <v>50</v>
+      <c r="K48" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="L48"/>
+      <c r="M48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N48"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>51</v>
+      <c r="A49" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B49"/>
-      <c r="C49" s="2" t="s">
-        <v>51</v>
+      <c r="C49" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D49"/>
-      <c r="E49" s="2" t="s">
-        <v>51</v>
+      <c r="E49" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="F49"/>
-      <c r="G49" s="2" t="s">
-        <v>51</v>
+      <c r="G49" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="H49"/>
-      <c r="I49" s="2" t="s">
-        <v>51</v>
+      <c r="I49" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="J49"/>
-      <c r="K49" s="2" t="s">
-        <v>51</v>
+      <c r="K49" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="L49"/>
+      <c r="M49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N49"/>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>52</v>
+      <c r="A50" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B50"/>
-      <c r="C50" s="2" t="s">
-        <v>52</v>
+      <c r="C50" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="D50"/>
-      <c r="E50" s="2" t="s">
-        <v>52</v>
+      <c r="E50" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="F50"/>
-      <c r="G50" s="2" t="s">
-        <v>52</v>
+      <c r="G50" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="H50"/>
-      <c r="I50" s="2" t="s">
-        <v>52</v>
+      <c r="I50" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="J50"/>
-      <c r="K50" s="2" t="s">
-        <v>52</v>
+      <c r="K50" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="L50"/>
+      <c r="M50" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N50"/>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>53</v>
+      <c r="A51" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B51"/>
-      <c r="C51" s="2" t="s">
-        <v>53</v>
+      <c r="C51" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="D51"/>
-      <c r="E51" s="2" t="s">
-        <v>53</v>
+      <c r="E51" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="F51"/>
-      <c r="G51" s="2" t="s">
-        <v>53</v>
+      <c r="G51" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="H51"/>
-      <c r="I51" s="2" t="s">
-        <v>53</v>
+      <c r="I51" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="J51"/>
-      <c r="K51" s="2" t="s">
-        <v>53</v>
+      <c r="K51" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="L51"/>
+      <c r="M51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N51"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>54</v>
+      <c r="A52" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B52"/>
-      <c r="C52" s="2" t="s">
-        <v>54</v>
+      <c r="C52" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D52"/>
-      <c r="E52" s="2" t="s">
-        <v>54</v>
+      <c r="E52" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="F52"/>
-      <c r="G52" s="2" t="s">
-        <v>54</v>
+      <c r="G52" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="H52"/>
-      <c r="I52" s="2" t="s">
-        <v>54</v>
+      <c r="I52" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="J52"/>
-      <c r="K52" s="2" t="s">
-        <v>54</v>
+      <c r="K52" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="L52"/>
+      <c r="M52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N52"/>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>55</v>
+      <c r="A53" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="B53"/>
-      <c r="C53" s="2" t="s">
-        <v>55</v>
+      <c r="C53" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="D53"/>
-      <c r="E53" s="2" t="s">
-        <v>55</v>
+      <c r="E53" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="F53"/>
-      <c r="G53" s="2" t="s">
-        <v>55</v>
+      <c r="G53" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="H53"/>
-      <c r="I53" s="2" t="s">
-        <v>55</v>
+      <c r="I53" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="J53"/>
-      <c r="K53" s="2" t="s">
-        <v>55</v>
+      <c r="K53" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="L53"/>
+      <c r="M53" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N53"/>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="s">
-        <v>56</v>
+      <c r="A54" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B54"/>
-      <c r="C54" s="2" t="s">
-        <v>56</v>
+      <c r="C54" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="D54"/>
-      <c r="E54" s="2" t="s">
-        <v>56</v>
+      <c r="E54" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="F54"/>
-      <c r="G54" s="2" t="s">
-        <v>56</v>
+      <c r="G54" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="H54"/>
-      <c r="I54" s="2" t="s">
-        <v>56</v>
+      <c r="I54" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="J54"/>
-      <c r="K54" s="2" t="s">
-        <v>56</v>
+      <c r="K54" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="L54"/>
+      <c r="M54" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N54"/>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="s">
-        <v>57</v>
+      <c r="A55" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="B55"/>
-      <c r="C55" s="2" t="s">
-        <v>57</v>
+      <c r="C55" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="D55"/>
-      <c r="E55" s="2" t="s">
-        <v>57</v>
+      <c r="E55" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="F55"/>
-      <c r="G55" s="2" t="s">
-        <v>57</v>
+      <c r="G55" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="H55"/>
-      <c r="I55" s="2" t="s">
-        <v>57</v>
+      <c r="I55" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="J55"/>
-      <c r="K55" s="2" t="s">
-        <v>57</v>
+      <c r="K55" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="L55"/>
+      <c r="M55" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N55"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="s">
-        <v>58</v>
+      <c r="A56" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B56"/>
-      <c r="C56" s="2" t="s">
-        <v>58</v>
+      <c r="C56" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D56"/>
-      <c r="E56" s="2" t="s">
-        <v>58</v>
+      <c r="E56" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="F56"/>
-      <c r="G56" s="2" t="s">
-        <v>58</v>
+      <c r="G56" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="H56"/>
-      <c r="I56" s="2" t="s">
-        <v>58</v>
+      <c r="I56" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="J56"/>
-      <c r="K56" s="2" t="s">
-        <v>58</v>
+      <c r="K56" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="L56"/>
+      <c r="M56" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N56"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="s">
-        <v>59</v>
+      <c r="A57" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B57"/>
-      <c r="C57" s="2" t="s">
-        <v>59</v>
+      <c r="C57" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="D57"/>
-      <c r="E57" s="2" t="s">
-        <v>59</v>
+      <c r="E57" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="F57"/>
-      <c r="G57" s="2" t="s">
-        <v>59</v>
+      <c r="G57" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="H57"/>
-      <c r="I57" s="2" t="s">
-        <v>59</v>
+      <c r="I57" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="J57"/>
-      <c r="K57" s="2" t="s">
-        <v>59</v>
+      <c r="K57" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="L57"/>
+      <c r="M57" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N57"/>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="s">
-        <v>60</v>
+      <c r="A58" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="B58"/>
-      <c r="C58" s="2" t="s">
-        <v>60</v>
+      <c r="C58" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D58"/>
-      <c r="E58" s="2" t="s">
-        <v>60</v>
+      <c r="E58" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F58"/>
-      <c r="G58" s="2" t="s">
-        <v>60</v>
+      <c r="G58" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="H58"/>
-      <c r="I58" s="2" t="s">
-        <v>60</v>
+      <c r="I58" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="J58"/>
-      <c r="K58" s="2" t="s">
-        <v>60</v>
+      <c r="K58" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="L58"/>
+      <c r="M58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N58"/>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="s">
-        <v>61</v>
+      <c r="A59" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B59"/>
-      <c r="C59" s="2" t="s">
-        <v>61</v>
+      <c r="C59" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D59"/>
-      <c r="E59" s="2" t="s">
-        <v>61</v>
+      <c r="E59" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F59"/>
-      <c r="G59" s="2" t="s">
-        <v>61</v>
+      <c r="G59" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="H59"/>
-      <c r="I59" s="2" t="s">
-        <v>61</v>
+      <c r="I59" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="J59"/>
-      <c r="K59" s="2" t="s">
-        <v>61</v>
+      <c r="K59" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="L59"/>
+      <c r="M59" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N59"/>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="s">
-        <v>65</v>
+      <c r="A60" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="B60"/>
-      <c r="C60" s="2" t="s">
-        <v>65</v>
+      <c r="C60" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="D60"/>
-      <c r="E60" s="2" t="s">
-        <v>65</v>
+      <c r="E60" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="F60"/>
-      <c r="G60" s="2" t="s">
-        <v>65</v>
+      <c r="G60" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="H60"/>
-      <c r="I60" s="2" t="s">
-        <v>65</v>
+      <c r="I60" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="J60"/>
-      <c r="K60" s="2" t="s">
-        <v>65</v>
+      <c r="K60" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="L60"/>
+      <c r="M60" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N60"/>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="s">
-        <v>66</v>
+      <c r="A61" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="B61"/>
-      <c r="C61" s="2" t="s">
-        <v>66</v>
+      <c r="C61" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D61"/>
-      <c r="E61" s="2" t="s">
-        <v>66</v>
+      <c r="E61" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="F61"/>
-      <c r="G61" s="2" t="s">
-        <v>66</v>
+      <c r="G61" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="H61"/>
-      <c r="I61" s="2" t="s">
-        <v>66</v>
+      <c r="I61" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="J61"/>
-      <c r="K61" s="2" t="s">
-        <v>66</v>
+      <c r="K61" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="L61"/>
+      <c r="M61" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N61"/>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="s">
-        <v>67</v>
+      <c r="A62" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="B62"/>
-      <c r="C62" s="2" t="s">
-        <v>67</v>
+      <c r="C62" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D62"/>
-      <c r="E62" s="2" t="s">
-        <v>67</v>
+      <c r="E62" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="F62"/>
-      <c r="G62" s="2" t="s">
-        <v>67</v>
+      <c r="G62" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="H62"/>
-      <c r="I62" s="2" t="s">
-        <v>67</v>
+      <c r="I62" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="J62"/>
-      <c r="K62" s="2" t="s">
-        <v>67</v>
+      <c r="K62" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="L62"/>
+      <c r="M62" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N62"/>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="s">
-        <v>68</v>
+      <c r="A63" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B63"/>
-      <c r="C63" s="2" t="s">
-        <v>68</v>
+      <c r="C63" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D63"/>
-      <c r="E63" s="2" t="s">
-        <v>68</v>
+      <c r="E63" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="F63"/>
-      <c r="G63" s="2" t="s">
-        <v>68</v>
+      <c r="G63" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="H63"/>
-      <c r="I63" s="2" t="s">
-        <v>68</v>
+      <c r="I63" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="J63"/>
-      <c r="K63" s="2" t="s">
-        <v>68</v>
+      <c r="K63" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="L63"/>
+      <c r="M63" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N63"/>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="s">
-        <v>69</v>
+      <c r="A64" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="B64"/>
-      <c r="C64" s="2" t="s">
-        <v>69</v>
+      <c r="C64" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="D64"/>
-      <c r="E64" s="2" t="s">
-        <v>69</v>
+      <c r="E64" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F64"/>
-      <c r="G64" s="2" t="s">
-        <v>69</v>
+      <c r="G64" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="H64"/>
-      <c r="I64" s="2" t="s">
-        <v>69</v>
+      <c r="I64" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="J64"/>
-      <c r="K64" s="2" t="s">
-        <v>69</v>
+      <c r="K64" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="L64"/>
+      <c r="M64" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N64"/>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="s">
-        <v>70</v>
+      <c r="A65" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="B65"/>
-      <c r="C65" s="2" t="s">
-        <v>70</v>
+      <c r="C65" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D65"/>
-      <c r="E65" s="2" t="s">
-        <v>70</v>
+      <c r="E65" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="F65"/>
-      <c r="G65" s="2" t="s">
-        <v>70</v>
+      <c r="G65" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="H65"/>
-      <c r="I65" s="2" t="s">
-        <v>70</v>
+      <c r="I65" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="J65"/>
-      <c r="K65" s="2" t="s">
-        <v>70</v>
+      <c r="K65" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="L65"/>
+      <c r="M65" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N65"/>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="s">
-        <v>71</v>
+      <c r="A66" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="B66"/>
-      <c r="C66" s="2" t="s">
-        <v>71</v>
+      <c r="C66" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D66"/>
-      <c r="E66" s="2" t="s">
-        <v>71</v>
+      <c r="E66" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="F66"/>
-      <c r="G66" s="2" t="s">
-        <v>71</v>
+      <c r="G66" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="H66"/>
-      <c r="I66" s="2" t="s">
-        <v>71</v>
+      <c r="I66" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="J66"/>
-      <c r="K66" s="2" t="s">
-        <v>71</v>
+      <c r="K66" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="L66"/>
+      <c r="M66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N66"/>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="s">
-        <v>72</v>
+      <c r="A67" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="B67"/>
-      <c r="C67" s="2" t="s">
-        <v>72</v>
+      <c r="C67" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="D67"/>
-      <c r="E67" s="2" t="s">
-        <v>72</v>
+      <c r="E67" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="F67"/>
-      <c r="G67" s="2" t="s">
-        <v>72</v>
+      <c r="G67" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="H67"/>
-      <c r="I67" s="2" t="s">
-        <v>72</v>
+      <c r="I67" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="J67"/>
-      <c r="K67" s="2" t="s">
-        <v>72</v>
+      <c r="K67" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="L67"/>
+      <c r="M67" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N67"/>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="s">
-        <v>73</v>
+      <c r="A68" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B68"/>
-      <c r="C68" s="2" t="s">
-        <v>73</v>
+      <c r="C68" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="D68"/>
-      <c r="E68" s="2" t="s">
-        <v>73</v>
+      <c r="E68" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="F68"/>
-      <c r="G68" s="2" t="s">
-        <v>73</v>
+      <c r="G68" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="H68"/>
-      <c r="I68" s="2" t="s">
-        <v>73</v>
+      <c r="I68" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="J68"/>
-      <c r="K68" s="2" t="s">
-        <v>73</v>
+      <c r="K68" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="L68"/>
+      <c r="M68" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N68"/>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="s">
-        <v>74</v>
+      <c r="A69" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="B69"/>
-      <c r="C69" s="2" t="s">
-        <v>74</v>
+      <c r="C69" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="D69"/>
-      <c r="E69" s="2" t="s">
-        <v>74</v>
+      <c r="E69" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="F69"/>
-      <c r="G69" s="2" t="s">
-        <v>74</v>
+      <c r="G69" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="H69"/>
-      <c r="I69" s="2" t="s">
-        <v>74</v>
+      <c r="I69" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="J69"/>
-      <c r="K69" s="2" t="s">
-        <v>74</v>
+      <c r="K69" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="L69"/>
+      <c r="M69" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N69"/>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="s">
-        <v>75</v>
+      <c r="A70" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="B70"/>
-      <c r="C70" s="2" t="s">
-        <v>75</v>
+      <c r="C70" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="D70"/>
-      <c r="E70" s="2" t="s">
-        <v>75</v>
+      <c r="E70" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="F70"/>
-      <c r="G70" s="2" t="s">
-        <v>75</v>
+      <c r="G70" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="H70"/>
-      <c r="I70" s="2" t="s">
-        <v>75</v>
+      <c r="I70" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="J70"/>
-      <c r="K70" s="2" t="s">
-        <v>75</v>
+      <c r="K70" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="L70"/>
+      <c r="M70" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N70"/>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="s">
-        <v>76</v>
+      <c r="A71" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="B71"/>
-      <c r="C71" s="2" t="s">
-        <v>76</v>
+      <c r="C71" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="D71"/>
-      <c r="E71" s="2" t="s">
-        <v>76</v>
+      <c r="E71" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="F71"/>
-      <c r="G71" s="2" t="s">
-        <v>76</v>
+      <c r="G71" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="H71"/>
-      <c r="I71" s="2" t="s">
-        <v>76</v>
+      <c r="I71" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="J71"/>
-      <c r="K71" s="2" t="s">
-        <v>76</v>
+      <c r="K71" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="L71"/>
+      <c r="M71" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N71"/>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="s">
-        <v>78</v>
+      <c r="A72" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="B72"/>
-      <c r="C72" s="2" t="s">
-        <v>78</v>
+      <c r="C72" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="D72"/>
-      <c r="E72" s="2" t="s">
-        <v>78</v>
+      <c r="E72" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="F72"/>
-      <c r="G72" s="2" t="s">
-        <v>78</v>
+      <c r="G72" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="H72"/>
-      <c r="I72" s="2" t="s">
-        <v>78</v>
+      <c r="I72" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="J72"/>
-      <c r="K72" s="2" t="s">
-        <v>78</v>
+      <c r="K72" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="L72"/>
+      <c r="M72" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N72"/>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="s">
-        <v>79</v>
+      <c r="A73" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B73"/>
-      <c r="C73" s="2" t="s">
-        <v>79</v>
+      <c r="C73" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="D73"/>
-      <c r="E73" s="2" t="s">
-        <v>79</v>
+      <c r="E73" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F73"/>
-      <c r="G73" s="2" t="s">
-        <v>79</v>
+      <c r="G73" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="H73"/>
-      <c r="I73" s="2" t="s">
-        <v>79</v>
+      <c r="I73" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="J73"/>
-      <c r="K73" s="2" t="s">
-        <v>79</v>
+      <c r="K73" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="L73"/>
+      <c r="M73" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N73"/>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>80</v>
+      <c r="A74" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="B74"/>
-      <c r="C74" s="2" t="s">
-        <v>80</v>
+      <c r="C74" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D74"/>
-      <c r="E74" s="2" t="s">
-        <v>80</v>
+      <c r="E74" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="F74"/>
-      <c r="G74" s="2" t="s">
-        <v>80</v>
+      <c r="G74" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="H74"/>
-      <c r="I74" s="2" t="s">
-        <v>80</v>
+      <c r="I74" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="J74"/>
-      <c r="K74" s="2" t="s">
-        <v>80</v>
+      <c r="K74" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="L74"/>
+      <c r="M74" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N74"/>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="s">
-        <v>83</v>
+      <c r="A75" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="B75"/>
-      <c r="C75" s="2" t="s">
-        <v>83</v>
+      <c r="C75" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D75"/>
-      <c r="E75" s="2" t="s">
-        <v>83</v>
+      <c r="E75" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="F75"/>
-      <c r="G75" s="2" t="s">
-        <v>83</v>
+      <c r="G75" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="H75"/>
-      <c r="I75" s="2" t="s">
-        <v>83</v>
+      <c r="I75" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="J75"/>
-      <c r="K75" s="2" t="s">
-        <v>83</v>
+      <c r="K75" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="L75"/>
+      <c r="M75" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N75"/>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="s">
-        <v>85</v>
+      <c r="A76" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B76"/>
-      <c r="C76" s="2" t="s">
-        <v>85</v>
+      <c r="C76" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="D76"/>
-      <c r="E76" s="2" t="s">
-        <v>85</v>
+      <c r="E76" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="F76"/>
-      <c r="G76" s="2" t="s">
-        <v>85</v>
+      <c r="G76" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="H76"/>
-      <c r="I76" s="2" t="s">
-        <v>85</v>
+      <c r="I76" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="J76"/>
-      <c r="K76" s="2" t="s">
-        <v>85</v>
+      <c r="K76" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="L76"/>
+      <c r="M76" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N76"/>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="s">
-        <v>86</v>
+      <c r="A77" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="B77"/>
-      <c r="C77" s="2" t="s">
-        <v>86</v>
+      <c r="C77" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D77"/>
-      <c r="E77" s="2" t="s">
-        <v>86</v>
+      <c r="E77" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="F77"/>
-      <c r="G77" s="2" t="s">
-        <v>86</v>
+      <c r="G77" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="H77"/>
-      <c r="I77" s="2" t="s">
-        <v>86</v>
+      <c r="I77" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="J77"/>
-      <c r="K77" s="2" t="s">
-        <v>86</v>
+      <c r="K77" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="L77"/>
+      <c r="M77" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N77"/>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="s">
-        <v>87</v>
+      <c r="A78" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B78"/>
-      <c r="C78" s="2" t="s">
-        <v>87</v>
+      <c r="C78" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="D78"/>
-      <c r="E78" s="2" t="s">
-        <v>87</v>
+      <c r="E78" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="F78"/>
-      <c r="G78" s="2" t="s">
-        <v>87</v>
+      <c r="G78" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H78"/>
-      <c r="I78" s="2" t="s">
-        <v>87</v>
+      <c r="I78" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="J78"/>
-      <c r="K78" s="2" t="s">
-        <v>87</v>
+      <c r="K78" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="L78"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B79"/>
-      <c r="C79" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D79"/>
-      <c r="E79" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F79"/>
-      <c r="G79" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H79"/>
-      <c r="I79" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J79"/>
-      <c r="K79" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L79"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B80"/>
-      <c r="C80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D80"/>
-      <c r="E80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F80"/>
-      <c r="G80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H80"/>
-      <c r="I80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J80"/>
-      <c r="K80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L80"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B81"/>
-      <c r="C81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D81"/>
-      <c r="E81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F81"/>
-      <c r="G81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H81"/>
-      <c r="I81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J81"/>
-      <c r="K81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L81"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82"/>
-      <c r="C82" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D82"/>
-      <c r="E82" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82"/>
-      <c r="G82" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H82"/>
-      <c r="I82" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J82"/>
-      <c r="K82" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L82"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83"/>
-      <c r="C83" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D83"/>
-      <c r="E83" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F83"/>
-      <c r="G83" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H83"/>
-      <c r="I83" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J83"/>
-      <c r="K83" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L83"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="s">
+      <c r="M78" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B84"/>
-      <c r="C84" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D84"/>
-      <c r="E84" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F84"/>
-      <c r="G84" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H84"/>
-      <c r="I84" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J84"/>
-      <c r="K84" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L84"/>
+      <c r="N78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4384,6 +4659,7 @@
     <col min="3" max="3" width="31.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="21.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="31.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="16.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4391,138 +4667,182 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="G1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B5" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B6" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B7" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="n">
+        <v>51</v>
+      </c>
+      <c r="C8" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4546,41 +4866,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="B3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiment_plans/large_upper_ex_plan.xlsx
+++ b/experiment_plans/large_upper_ex_plan.xlsx
@@ -2192,7 +2192,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -2201,31 +2201,31 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>8</v>
@@ -2236,13 +2236,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
@@ -2251,25 +2251,25 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>9</v>
@@ -2280,19 +2280,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>10</v>
@@ -2301,19 +2301,19 @@
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>10</v>
@@ -2324,25 +2324,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>11</v>
@@ -2351,13 +2351,13 @@
         <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>11</v>
@@ -4748,7 +4748,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
